--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd80-Cd274.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd80-Cd274.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd80</t>
   </si>
   <si>
     <t>Cd274</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.549841606829399</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="H2">
-        <v>0.549841606829399</v>
+        <v>1.849892</v>
       </c>
       <c r="I2">
-        <v>0.01602042830605331</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="J2">
-        <v>0.01602042830605331</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.89456878702047</v>
+        <v>10.09870433333333</v>
       </c>
       <c r="N2">
-        <v>9.89456878702047</v>
+        <v>30.296113</v>
       </c>
       <c r="O2">
-        <v>0.3093493256358215</v>
+        <v>0.2386825353037557</v>
       </c>
       <c r="P2">
-        <v>0.3093493256358215</v>
+        <v>0.2399792957636755</v>
       </c>
       <c r="Q2">
-        <v>5.440445600739352</v>
+        <v>6.227170785532888</v>
       </c>
       <c r="R2">
-        <v>5.440445600739352</v>
+        <v>56.044537069796</v>
       </c>
       <c r="S2">
-        <v>0.004955908692874617</v>
+        <v>0.003785295487596305</v>
       </c>
       <c r="T2">
-        <v>0.004955908692874617</v>
+        <v>0.003826707014028756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.549841606829399</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="H3">
-        <v>0.549841606829399</v>
+        <v>1.849892</v>
       </c>
       <c r="I3">
-        <v>0.01602042830605331</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="J3">
-        <v>0.01602042830605331</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.08640710005298</v>
+        <v>2.763789333333333</v>
       </c>
       <c r="N3">
-        <v>2.08640710005298</v>
+        <v>8.291368</v>
       </c>
       <c r="O3">
-        <v>0.06523059703721924</v>
+        <v>0.06532206740106992</v>
       </c>
       <c r="P3">
-        <v>0.06523059703721924</v>
+        <v>0.06567696171312387</v>
       </c>
       <c r="Q3">
-        <v>1.147193432393397</v>
+        <v>1.704237259139556</v>
       </c>
       <c r="R3">
-        <v>1.147193432393397</v>
+        <v>15.338135332256</v>
       </c>
       <c r="S3">
-        <v>0.001045022103195824</v>
+        <v>0.001035950647411448</v>
       </c>
       <c r="T3">
-        <v>0.001045022103195824</v>
+        <v>0.001047284055267868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.549841606829399</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="H4">
-        <v>0.549841606829399</v>
+        <v>1.849892</v>
       </c>
       <c r="I4">
-        <v>0.01602042830605331</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="J4">
-        <v>0.01602042830605331</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4159627065618</v>
+        <v>21.29862566666667</v>
       </c>
       <c r="N4">
-        <v>12.4159627065618</v>
+        <v>63.895877</v>
       </c>
       <c r="O4">
-        <v>0.3881795935799437</v>
+        <v>0.5033922971510219</v>
       </c>
       <c r="P4">
-        <v>0.3881795935799437</v>
+        <v>0.5061272238013645</v>
       </c>
       <c r="Q4">
-        <v>6.826812884909834</v>
+        <v>13.13338574392044</v>
       </c>
       <c r="R4">
-        <v>6.826812884909834</v>
+        <v>118.200471695284</v>
       </c>
       <c r="S4">
-        <v>0.006218803348820399</v>
+        <v>0.007983359940732612</v>
       </c>
       <c r="T4">
-        <v>0.006218803348820399</v>
+        <v>0.008070698729022389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.549841606829399</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="H5">
-        <v>0.549841606829399</v>
+        <v>1.849892</v>
       </c>
       <c r="I5">
-        <v>0.01602042830605331</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="J5">
-        <v>0.01602042830605331</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.91569973345321</v>
+        <v>7.463188</v>
       </c>
       <c r="N5">
-        <v>6.91569973345321</v>
+        <v>22.389564</v>
       </c>
       <c r="O5">
-        <v>0.2162162995571841</v>
+        <v>0.1763921959185226</v>
       </c>
       <c r="P5">
-        <v>0.2162162995571841</v>
+        <v>0.1773505334224143</v>
       </c>
       <c r="Q5">
-        <v>3.802539453791559</v>
+        <v>4.602030591898666</v>
       </c>
       <c r="R5">
-        <v>3.802539453791559</v>
+        <v>41.418275327088</v>
       </c>
       <c r="S5">
-        <v>0.003463877725656013</v>
+        <v>0.002797425385178906</v>
       </c>
       <c r="T5">
-        <v>0.003463877725656013</v>
+        <v>0.002828029509919167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.549841606829399</v>
+        <v>0.6166306666666667</v>
       </c>
       <c r="H6">
-        <v>0.549841606829399</v>
+        <v>1.849892</v>
       </c>
       <c r="I6">
-        <v>0.01602042830605331</v>
+        <v>0.01585912217154475</v>
       </c>
       <c r="J6">
-        <v>0.01602042830605331</v>
+        <v>0.01594598818140205</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.67246061141304</v>
+        <v>0.6858865000000001</v>
       </c>
       <c r="N6">
-        <v>0.67246061141304</v>
+        <v>1.371773</v>
       </c>
       <c r="O6">
-        <v>0.02102418418983152</v>
+        <v>0.01621090422562982</v>
       </c>
       <c r="P6">
-        <v>0.02102418418983152</v>
+        <v>0.01086598529942189</v>
       </c>
       <c r="Q6">
-        <v>0.369746823108826</v>
+        <v>0.4229386497526667</v>
       </c>
       <c r="R6">
-        <v>0.369746823108826</v>
+        <v>2.537631898516</v>
       </c>
       <c r="S6">
-        <v>0.0003368164355064553</v>
+        <v>0.0002570907106254743</v>
       </c>
       <c r="T6">
-        <v>0.0003368164355064553</v>
+        <v>0.0001732688731638698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.31096286586931</v>
+        <v>2.510701</v>
       </c>
       <c r="H7">
-        <v>2.31096286586931</v>
+        <v>7.532103</v>
       </c>
       <c r="I7">
-        <v>0.06733323642802806</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="J7">
-        <v>0.06733323642802806</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.89456878702047</v>
+        <v>10.09870433333333</v>
       </c>
       <c r="N7">
-        <v>9.89456878702047</v>
+        <v>30.296113</v>
       </c>
       <c r="O7">
-        <v>0.3093493256358215</v>
+        <v>0.2386825353037557</v>
       </c>
       <c r="P7">
-        <v>0.3093493256358215</v>
+        <v>0.2399792957636755</v>
       </c>
       <c r="Q7">
-        <v>22.86598104059385</v>
+        <v>25.35482706840433</v>
       </c>
       <c r="R7">
-        <v>22.86598104059385</v>
+        <v>228.193443615639</v>
       </c>
       <c r="S7">
-        <v>0.02082949128188781</v>
+        <v>0.01541237839723108</v>
       </c>
       <c r="T7">
-        <v>0.02082949128188781</v>
+        <v>0.01558099142030293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.31096286586931</v>
+        <v>2.510701</v>
       </c>
       <c r="H8">
-        <v>2.31096286586931</v>
+        <v>7.532103</v>
       </c>
       <c r="I8">
-        <v>0.06733323642802806</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="J8">
-        <v>0.06733323642802806</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08640710005298</v>
+        <v>2.763789333333333</v>
       </c>
       <c r="N8">
-        <v>2.08640710005298</v>
+        <v>8.291368</v>
       </c>
       <c r="O8">
-        <v>0.06523059703721924</v>
+        <v>0.06532206740106992</v>
       </c>
       <c r="P8">
-        <v>0.06523059703721924</v>
+        <v>0.06567696171312387</v>
       </c>
       <c r="Q8">
-        <v>4.821609331308511</v>
+        <v>6.939048642989333</v>
       </c>
       <c r="R8">
-        <v>4.821609331308511</v>
+        <v>62.451437786904</v>
       </c>
       <c r="S8">
-        <v>0.00439218721264851</v>
+        <v>0.004218022986866105</v>
       </c>
       <c r="T8">
-        <v>0.00439218721264851</v>
+        <v>0.004264168597158794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.31096286586931</v>
+        <v>2.510701</v>
       </c>
       <c r="H9">
-        <v>2.31096286586931</v>
+        <v>7.532103</v>
       </c>
       <c r="I9">
-        <v>0.06733323642802806</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="J9">
-        <v>0.06733323642802806</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.4159627065618</v>
+        <v>21.29862566666667</v>
       </c>
       <c r="N9">
-        <v>12.4159627065618</v>
+        <v>63.895877</v>
       </c>
       <c r="O9">
-        <v>0.3881795935799437</v>
+        <v>0.5033922971510219</v>
       </c>
       <c r="P9">
-        <v>0.3881795935799437</v>
+        <v>0.5061272238013645</v>
       </c>
       <c r="Q9">
-        <v>28.69282875888253</v>
+        <v>53.47448075992567</v>
       </c>
       <c r="R9">
-        <v>28.69282875888253</v>
+        <v>481.270326839331</v>
       </c>
       <c r="S9">
-        <v>0.02613738835105419</v>
+        <v>0.03250540537483914</v>
       </c>
       <c r="T9">
-        <v>0.02613738835105419</v>
+        <v>0.03286101789129621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.31096286586931</v>
+        <v>2.510701</v>
       </c>
       <c r="H10">
-        <v>2.31096286586931</v>
+        <v>7.532103</v>
       </c>
       <c r="I10">
-        <v>0.06733323642802806</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="J10">
-        <v>0.06733323642802806</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.91569973345321</v>
+        <v>7.463188</v>
       </c>
       <c r="N10">
-        <v>6.91569973345321</v>
+        <v>22.389564</v>
       </c>
       <c r="O10">
-        <v>0.2162162995571841</v>
+        <v>0.1763921959185226</v>
       </c>
       <c r="P10">
-        <v>0.2162162995571841</v>
+        <v>0.1773505334224143</v>
       </c>
       <c r="Q10">
-        <v>15.98192527551265</v>
+        <v>18.737833574788</v>
       </c>
       <c r="R10">
-        <v>15.98192527551265</v>
+        <v>168.640502173092</v>
       </c>
       <c r="S10">
-        <v>0.01455854321767721</v>
+        <v>0.01139012230767104</v>
       </c>
       <c r="T10">
-        <v>0.01455854321767721</v>
+        <v>0.01151473143067308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.31096286586931</v>
+        <v>2.510701</v>
       </c>
       <c r="H11">
-        <v>2.31096286586931</v>
+        <v>7.532103</v>
       </c>
       <c r="I11">
-        <v>0.06733323642802806</v>
+        <v>0.06457271110186903</v>
       </c>
       <c r="J11">
-        <v>0.06733323642802806</v>
+        <v>0.06492639863251634</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.67246061141304</v>
+        <v>0.6858865000000001</v>
       </c>
       <c r="N11">
-        <v>0.67246061141304</v>
+        <v>1.371773</v>
       </c>
       <c r="O11">
-        <v>0.02102418418983152</v>
+        <v>0.01621090422562982</v>
       </c>
       <c r="P11">
-        <v>0.02102418418983152</v>
+        <v>0.01086598529942189</v>
       </c>
       <c r="Q11">
-        <v>1.554031501735307</v>
+        <v>1.7220559214365</v>
       </c>
       <c r="R11">
-        <v>1.554031501735307</v>
+        <v>10.332335528619</v>
       </c>
       <c r="S11">
-        <v>0.001415626364760335</v>
+        <v>0.001046782035261662</v>
       </c>
       <c r="T11">
-        <v>0.001415626364760335</v>
+        <v>0.000705489293085328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.56314081990827</v>
+        <v>12.23029433333333</v>
       </c>
       <c r="H12">
-        <v>9.56314081990827</v>
+        <v>36.690883</v>
       </c>
       <c r="I12">
-        <v>0.2786359016544339</v>
+        <v>0.314550901392543</v>
       </c>
       <c r="J12">
-        <v>0.2786359016544339</v>
+        <v>0.3162738077051013</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.89456878702047</v>
+        <v>10.09870433333333</v>
       </c>
       <c r="N12">
-        <v>9.89456878702047</v>
+        <v>30.296113</v>
       </c>
       <c r="O12">
-        <v>0.3093493256358215</v>
+        <v>0.2386825353037557</v>
       </c>
       <c r="P12">
-        <v>0.3093493256358215</v>
+        <v>0.2399792957636755</v>
       </c>
       <c r="Q12">
-        <v>94.62315466254572</v>
+        <v>123.5101263819754</v>
       </c>
       <c r="R12">
-        <v>94.62315466254572</v>
+        <v>1111.591137437779</v>
       </c>
       <c r="S12">
-        <v>0.0861958282747282</v>
+        <v>0.07507780662645384</v>
       </c>
       <c r="T12">
-        <v>0.0861958282747282</v>
+        <v>0.07589916564156633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.56314081990827</v>
+        <v>12.23029433333333</v>
       </c>
       <c r="H13">
-        <v>9.56314081990827</v>
+        <v>36.690883</v>
       </c>
       <c r="I13">
-        <v>0.2786359016544339</v>
+        <v>0.314550901392543</v>
       </c>
       <c r="J13">
-        <v>0.2786359016544339</v>
+        <v>0.3162738077051013</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.08640710005298</v>
+        <v>2.763789333333333</v>
       </c>
       <c r="N13">
-        <v>2.08640710005298</v>
+        <v>8.291368</v>
       </c>
       <c r="O13">
-        <v>0.06523059703721924</v>
+        <v>0.06532206740106992</v>
       </c>
       <c r="P13">
-        <v>0.06523059703721924</v>
+        <v>0.06567696171312387</v>
       </c>
       <c r="Q13">
-        <v>19.95260490546309</v>
+        <v>33.80195702199378</v>
       </c>
       <c r="R13">
-        <v>19.95260490546309</v>
+        <v>304.217613197944</v>
       </c>
       <c r="S13">
-        <v>0.01817558622092262</v>
+        <v>0.020547115181831</v>
       </c>
       <c r="T13">
-        <v>0.01817558622092262</v>
+        <v>0.02077190275951184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.56314081990827</v>
+        <v>12.23029433333333</v>
       </c>
       <c r="H14">
-        <v>9.56314081990827</v>
+        <v>36.690883</v>
       </c>
       <c r="I14">
-        <v>0.2786359016544339</v>
+        <v>0.314550901392543</v>
       </c>
       <c r="J14">
-        <v>0.2786359016544339</v>
+        <v>0.3162738077051013</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.4159627065618</v>
+        <v>21.29862566666667</v>
       </c>
       <c r="N14">
-        <v>12.4159627065618</v>
+        <v>63.895877</v>
       </c>
       <c r="O14">
-        <v>0.3881795935799437</v>
+        <v>0.5033922971510219</v>
       </c>
       <c r="P14">
-        <v>0.3881795935799437</v>
+        <v>0.5061272238013645</v>
       </c>
       <c r="Q14">
-        <v>118.7355997775799</v>
+        <v>260.4884607988212</v>
       </c>
       <c r="R14">
-        <v>118.7355997775799</v>
+        <v>2344.396147189391</v>
       </c>
       <c r="S14">
-        <v>0.1081607710609993</v>
+        <v>0.1583425008229168</v>
       </c>
       <c r="T14">
-        <v>0.1081607710609993</v>
+        <v>0.1600747842548696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.56314081990827</v>
+        <v>12.23029433333333</v>
       </c>
       <c r="H15">
-        <v>9.56314081990827</v>
+        <v>36.690883</v>
       </c>
       <c r="I15">
-        <v>0.2786359016544339</v>
+        <v>0.314550901392543</v>
       </c>
       <c r="J15">
-        <v>0.2786359016544339</v>
+        <v>0.3162738077051013</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.91569973345321</v>
+        <v>7.463188</v>
       </c>
       <c r="N15">
-        <v>6.91569973345321</v>
+        <v>22.389564</v>
       </c>
       <c r="O15">
-        <v>0.2162162995571841</v>
+        <v>0.1763921959185226</v>
       </c>
       <c r="P15">
-        <v>0.2162162995571841</v>
+        <v>0.1773505334224143</v>
       </c>
       <c r="Q15">
-        <v>66.13581041921513</v>
+        <v>91.27698590500133</v>
       </c>
       <c r="R15">
-        <v>66.13581041921513</v>
+        <v>821.492873145012</v>
       </c>
       <c r="S15">
-        <v>0.06024562357950115</v>
+        <v>0.05548432422478133</v>
       </c>
       <c r="T15">
-        <v>0.06024562357950115</v>
+        <v>0.05609132850403781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.56314081990827</v>
+        <v>12.23029433333333</v>
       </c>
       <c r="H16">
-        <v>9.56314081990827</v>
+        <v>36.690883</v>
       </c>
       <c r="I16">
-        <v>0.2786359016544339</v>
+        <v>0.314550901392543</v>
       </c>
       <c r="J16">
-        <v>0.2786359016544339</v>
+        <v>0.3162738077051013</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.67246061141304</v>
+        <v>0.6858865000000001</v>
       </c>
       <c r="N16">
-        <v>0.67246061141304</v>
+        <v>1.371773</v>
       </c>
       <c r="O16">
-        <v>0.02102418418983152</v>
+        <v>0.01621090422562982</v>
       </c>
       <c r="P16">
-        <v>0.02102418418983152</v>
+        <v>0.01086598529942189</v>
       </c>
       <c r="Q16">
-        <v>6.430835522784516</v>
+        <v>8.388593774259833</v>
       </c>
       <c r="R16">
-        <v>6.430835522784516</v>
+        <v>50.331562645559</v>
       </c>
       <c r="S16">
-        <v>0.005858092518282598</v>
+        <v>0.005099154536560044</v>
       </c>
       <c r="T16">
-        <v>0.005858092518282598</v>
+        <v>0.003436626545115817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.8973347833846</v>
+        <v>22.88871233333333</v>
       </c>
       <c r="H17">
-        <v>21.8973347833846</v>
+        <v>68.66613700000001</v>
       </c>
       <c r="I17">
-        <v>0.6380104336114848</v>
+        <v>0.5886747203247699</v>
       </c>
       <c r="J17">
-        <v>0.6380104336114848</v>
+        <v>0.591899099549884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.89456878702047</v>
+        <v>10.09870433333333</v>
       </c>
       <c r="N17">
-        <v>9.89456878702047</v>
+        <v>30.296113</v>
       </c>
       <c r="O17">
-        <v>0.3093493256358215</v>
+        <v>0.2386825353037557</v>
       </c>
       <c r="P17">
-        <v>0.3093493256358215</v>
+        <v>0.2399792957636755</v>
       </c>
       <c r="Q17">
-        <v>216.6646852666149</v>
+        <v>231.1463384250534</v>
       </c>
       <c r="R17">
-        <v>216.6646852666149</v>
+        <v>2080.317045825481</v>
       </c>
       <c r="S17">
-        <v>0.1973680973863309</v>
+        <v>0.1405063747163454</v>
       </c>
       <c r="T17">
-        <v>0.1973680973863309</v>
+        <v>0.1420435290731348</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.8973347833846</v>
+        <v>22.88871233333333</v>
       </c>
       <c r="H18">
-        <v>21.8973347833846</v>
+        <v>68.66613700000001</v>
       </c>
       <c r="I18">
-        <v>0.6380104336114848</v>
+        <v>0.5886747203247699</v>
       </c>
       <c r="J18">
-        <v>0.6380104336114848</v>
+        <v>0.591899099549884</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.08640710005298</v>
+        <v>2.763789333333333</v>
       </c>
       <c r="N18">
-        <v>2.08640710005298</v>
+        <v>8.291368</v>
       </c>
       <c r="O18">
-        <v>0.06523059703721924</v>
+        <v>0.06532206740106992</v>
       </c>
       <c r="P18">
-        <v>0.06523059703721924</v>
+        <v>0.06567696171312387</v>
       </c>
       <c r="Q18">
-        <v>45.68675476429071</v>
+        <v>63.25957900060178</v>
       </c>
       <c r="R18">
-        <v>45.68675476429071</v>
+        <v>569.3362110054161</v>
       </c>
       <c r="S18">
-        <v>0.04161780150045229</v>
+        <v>0.0384534497583606</v>
       </c>
       <c r="T18">
-        <v>0.04161780150045229</v>
+        <v>0.03887413449917022</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.8973347833846</v>
+        <v>22.88871233333333</v>
       </c>
       <c r="H19">
-        <v>21.8973347833846</v>
+        <v>68.66613700000001</v>
       </c>
       <c r="I19">
-        <v>0.6380104336114848</v>
+        <v>0.5886747203247699</v>
       </c>
       <c r="J19">
-        <v>0.6380104336114848</v>
+        <v>0.591899099549884</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.4159627065618</v>
+        <v>21.29862566666667</v>
       </c>
       <c r="N19">
-        <v>12.4159627065618</v>
+        <v>63.895877</v>
       </c>
       <c r="O19">
-        <v>0.3881795935799437</v>
+        <v>0.5033922971510219</v>
       </c>
       <c r="P19">
-        <v>0.3881795935799437</v>
+        <v>0.5061272238013645</v>
       </c>
       <c r="Q19">
-        <v>271.8764920436017</v>
+        <v>487.4981159796832</v>
       </c>
       <c r="R19">
-        <v>271.8764920436017</v>
+        <v>4387.483043817149</v>
       </c>
       <c r="S19">
-        <v>0.2476626308190698</v>
+        <v>0.2963343197390212</v>
       </c>
       <c r="T19">
-        <v>0.2476626308190698</v>
+        <v>0.2995762480257103</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.8973347833846</v>
+        <v>22.88871233333333</v>
       </c>
       <c r="H20">
-        <v>21.8973347833846</v>
+        <v>68.66613700000001</v>
       </c>
       <c r="I20">
-        <v>0.6380104336114848</v>
+        <v>0.5886747203247699</v>
       </c>
       <c r="J20">
-        <v>0.6380104336114848</v>
+        <v>0.591899099549884</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.91569973345321</v>
+        <v>7.463188</v>
       </c>
       <c r="N20">
-        <v>6.91569973345321</v>
+        <v>22.389564</v>
       </c>
       <c r="O20">
-        <v>0.2162162995571841</v>
+        <v>0.1763921959185226</v>
       </c>
       <c r="P20">
-        <v>0.2162162995571841</v>
+        <v>0.1773505334224143</v>
       </c>
       <c r="Q20">
-        <v>151.4353923247886</v>
+        <v>170.8227632215853</v>
       </c>
       <c r="R20">
-        <v>151.4353923247886</v>
+        <v>1537.404868994268</v>
       </c>
       <c r="S20">
-        <v>0.1379482550343497</v>
+        <v>0.1038376265998083</v>
       </c>
       <c r="T20">
-        <v>0.1379482550343497</v>
+        <v>0.1049736210374186</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.8973347833846</v>
+        <v>22.88871233333333</v>
       </c>
       <c r="H21">
-        <v>21.8973347833846</v>
+        <v>68.66613700000001</v>
       </c>
       <c r="I21">
-        <v>0.6380104336114848</v>
+        <v>0.5886747203247699</v>
       </c>
       <c r="J21">
-        <v>0.6380104336114848</v>
+        <v>0.591899099549884</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.67246061141304</v>
+        <v>0.6858865000000001</v>
       </c>
       <c r="N21">
-        <v>0.67246061141304</v>
+        <v>1.371773</v>
       </c>
       <c r="O21">
-        <v>0.02102418418983152</v>
+        <v>0.01621090422562982</v>
       </c>
       <c r="P21">
-        <v>0.02102418418983152</v>
+        <v>0.01086598529942189</v>
       </c>
       <c r="Q21">
-        <v>14.72509513675084</v>
+        <v>15.69905879181684</v>
       </c>
       <c r="R21">
-        <v>14.72509513675084</v>
+        <v>94.19435275090102</v>
       </c>
       <c r="S21">
-        <v>0.01341364887128213</v>
+        <v>0.009542949511234263</v>
       </c>
       <c r="T21">
-        <v>0.01341364887128213</v>
+        <v>0.006431566914450093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.635427</v>
+      </c>
+      <c r="H22">
+        <v>1.270854</v>
+      </c>
+      <c r="I22">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="J22">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.09870433333333</v>
+      </c>
+      <c r="N22">
+        <v>30.296113</v>
+      </c>
+      <c r="O22">
+        <v>0.2386825353037557</v>
+      </c>
+      <c r="P22">
+        <v>0.2399792957636755</v>
+      </c>
+      <c r="Q22">
+        <v>6.416989398416999</v>
+      </c>
+      <c r="R22">
+        <v>38.501936390502</v>
+      </c>
+      <c r="S22">
+        <v>0.003900680076129078</v>
+      </c>
+      <c r="T22">
+        <v>0.002628902614642639</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.635427</v>
+      </c>
+      <c r="H23">
+        <v>1.270854</v>
+      </c>
+      <c r="I23">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="J23">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.763789333333333</v>
+      </c>
+      <c r="N23">
+        <v>8.291368</v>
+      </c>
+      <c r="O23">
+        <v>0.06532206740106992</v>
+      </c>
+      <c r="P23">
+        <v>0.06567696171312387</v>
+      </c>
+      <c r="Q23">
+        <v>1.756186364712</v>
+      </c>
+      <c r="R23">
+        <v>10.537118188272</v>
+      </c>
+      <c r="S23">
+        <v>0.001067528826600766</v>
+      </c>
+      <c r="T23">
+        <v>0.0007194718020151399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.635427</v>
+      </c>
+      <c r="H24">
+        <v>1.270854</v>
+      </c>
+      <c r="I24">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="J24">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>21.29862566666667</v>
+      </c>
+      <c r="N24">
+        <v>63.895877</v>
+      </c>
+      <c r="O24">
+        <v>0.5033922971510219</v>
+      </c>
+      <c r="P24">
+        <v>0.5061272238013645</v>
+      </c>
+      <c r="Q24">
+        <v>13.533721811493</v>
+      </c>
+      <c r="R24">
+        <v>81.202330868958</v>
+      </c>
+      <c r="S24">
+        <v>0.008226711273512025</v>
+      </c>
+      <c r="T24">
+        <v>0.005544474900466091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.635427</v>
+      </c>
+      <c r="H25">
+        <v>1.270854</v>
+      </c>
+      <c r="I25">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="J25">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.463188</v>
+      </c>
+      <c r="N25">
+        <v>22.389564</v>
+      </c>
+      <c r="O25">
+        <v>0.1763921959185226</v>
+      </c>
+      <c r="P25">
+        <v>0.1773505334224143</v>
+      </c>
+      <c r="Q25">
+        <v>4.742311161276</v>
+      </c>
+      <c r="R25">
+        <v>28.453866967656</v>
+      </c>
+      <c r="S25">
+        <v>0.002882697401082999</v>
+      </c>
+      <c r="T25">
+        <v>0.001942822940365607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.635427</v>
+      </c>
+      <c r="H26">
+        <v>1.270854</v>
+      </c>
+      <c r="I26">
+        <v>0.01634254500927324</v>
+      </c>
+      <c r="J26">
+        <v>0.01095470593109626</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6858865000000001</v>
+      </c>
+      <c r="N26">
+        <v>1.371773</v>
+      </c>
+      <c r="O26">
+        <v>0.01621090422562982</v>
+      </c>
+      <c r="P26">
+        <v>0.01086598529942189</v>
+      </c>
+      <c r="Q26">
+        <v>0.4358308010355</v>
+      </c>
+      <c r="R26">
+        <v>1.743323204142</v>
+      </c>
+      <c r="S26">
+        <v>0.0002649274319483731</v>
+      </c>
+      <c r="T26">
+        <v>0.0001190336736067817</v>
       </c>
     </row>
   </sheetData>
